--- a/Werkwoorden_Lijst.xlsx
+++ b/Werkwoorden_Lijst.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -43,6 +43,11 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -73,17 +78,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -387,13 +395,13 @@
   </sheetPr>
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A118" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="B123" activeCellId="0" pane="topLeft" sqref="B123:C123"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
+      <selection activeCell="B139" activeCellId="0" pane="topLeft" sqref="B139:F166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="2" width="24.68"/>
+    <col customWidth="1" max="3" min="3" style="2" width="15.91"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="3">
@@ -585,7 +593,11 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="8" s="3">
-      <c r="A8" s="2" t="inlineStr"/>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>doe</t>
+        </is>
+      </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>doen</t>
@@ -3445,239 +3457,1028 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="123" s="3">
-      <c r="A123" s="2" t="inlineStr"/>
-      <c r="B123" s="2" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" s="2" t="inlineStr"/>
-      <c r="E123" s="2" t="inlineStr"/>
-      <c r="F123" s="2" t="inlineStr"/>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>staan</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>stond, stonden</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>gestaan</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>stand</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="124" s="3">
-      <c r="B124" s="2" t="n"/>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>steken</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>stak, staken</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>gestoken</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>stab, sting</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="125" s="3">
-      <c r="B125" s="2" t="n"/>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>stelen</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>stal, stalen</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>gestolen</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>steal</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="126" s="3">
-      <c r="B126" s="2" t="n"/>
-      <c r="D126" s="2" t="n"/>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>sterven</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>stierf, stierven</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>gestorven</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>die</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="127" s="3">
-      <c r="B127" s="2" t="n"/>
-      <c r="D127" s="2" t="n"/>
-      <c r="E127" s="2" t="n"/>
-      <c r="F127" s="2" t="n"/>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>stijgen</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>steeg, stegen</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>isgestegen</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>climb</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="128" s="3">
-      <c r="B128" s="2" t="n"/>
-      <c r="D128" s="2" t="n"/>
-      <c r="E128" s="2" t="n"/>
-      <c r="F128" s="2" t="n"/>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>treden</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>trad, traden</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>getreden</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="129" s="3">
-      <c r="B129" s="2" t="n"/>
-      <c r="E129" s="2" t="n"/>
-      <c r="F129" s="2" t="n"/>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>treffen</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>trof, troffen</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>getroffen</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="130" s="3">
-      <c r="B130" s="2" t="n"/>
-      <c r="E130" s="2" t="n"/>
-      <c r="F130" s="2" t="n"/>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>trekken</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>trok, trokken</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>getrokken</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="131" s="3">
-      <c r="B131" s="2" t="n"/>
-      <c r="D131" s="2" t="n"/>
-      <c r="E131" s="2" t="n"/>
-      <c r="F131" s="2" t="n"/>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>vallen</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>viel, vielen</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>gevallen</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="132" s="3">
-      <c r="B132" s="2" t="n"/>
-      <c r="E132" s="2" t="n"/>
-      <c r="F132" s="2" t="n"/>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>vangen</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>ving, vingen</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>gevangen</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>catch</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="133" s="3">
-      <c r="B133" s="2" t="n"/>
-      <c r="D133" s="2" t="n"/>
-      <c r="E133" s="2" t="n"/>
-      <c r="F133" s="2" t="n"/>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>varen</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>voer, voeren</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>(is)</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>gevaren</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>sail</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="134" s="3">
-      <c r="B134" s="2" t="n"/>
-      <c r="E134" s="2" t="n"/>
-      <c r="F134" s="2" t="n"/>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>vechten</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>vocht, vochten</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>gevochten</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>fight</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="135" s="3">
-      <c r="B135" s="2" t="n"/>
-      <c r="E135" s="2" t="n"/>
-      <c r="F135" s="2" t="n"/>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>verbieden</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>verbood, verboden</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>verboden</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>forbid</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="136" s="3">
-      <c r="B136" s="2" t="n"/>
-      <c r="D136" s="2" t="n"/>
-      <c r="E136" s="2" t="n"/>
-      <c r="F136" s="2" t="n"/>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>verdwijnen</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>verdween, verdwenen</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>verdwenen</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>disappear</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="137" s="3">
-      <c r="B137" s="2" t="n"/>
-      <c r="D137" s="2" t="n"/>
-      <c r="E137" s="2" t="n"/>
-      <c r="F137" s="2" t="n"/>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>vergeten</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>vergat, vergaten</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>(is)</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>vergeten</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>forget</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="138" s="3">
-      <c r="B138" s="2" t="n"/>
-      <c r="E138" s="2" t="n"/>
-      <c r="F138" s="2" t="n"/>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>verliezen</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>verloor, verloren</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>verloren</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="139" s="3">
-      <c r="B139" s="2" t="n"/>
-      <c r="E139" s="2" t="n"/>
-      <c r="F139" s="2" t="n"/>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>vermijden</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>vermeed, vermeden</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>vermeden</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>avoid</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="140" s="3">
-      <c r="B140" s="2" t="n"/>
-      <c r="E140" s="2" t="n"/>
-      <c r="F140" s="2" t="n"/>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>vinden</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>vond, vonden</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>gevonden</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="141" s="3">
-      <c r="B141" s="2" t="n"/>
-      <c r="E141" s="2" t="n"/>
-      <c r="F141" s="2" t="n"/>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>vliegen</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>vloog, vlogen</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>geviogen</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>fly</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="142" s="3">
-      <c r="B142" s="2" t="n"/>
-      <c r="E142" s="2" t="n"/>
-      <c r="F142" s="2" t="n"/>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>vouwen</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>vouwde, vouwden</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>gevouwen</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>fold</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="143" s="3">
-      <c r="B143" s="2" t="n"/>
-      <c r="E143" s="2" t="n"/>
-      <c r="F143" s="2" t="n"/>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>vragen</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>vroeg, vroegen</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>gevraagd</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="144" s="3">
-      <c r="B144" s="2" t="n"/>
-      <c r="E144" s="2" t="n"/>
-      <c r="F144" s="2" t="n"/>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>vriezen</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>vroor, vroren</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>gevroren</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>freeze</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="145" s="3">
-      <c r="B145" s="2" t="n"/>
-      <c r="E145" s="2" t="n"/>
-      <c r="F145" s="2" t="n"/>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>waaien</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">waaide, waaiden, woei, woeien </t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>gewaaid</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>blow</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="146" s="3">
-      <c r="B146" s="2" t="n"/>
-      <c r="E146" s="2" t="n"/>
-      <c r="F146" s="2" t="n"/>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>wassen</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>waste, wasten</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>gewassen</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>wash</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="147" s="3">
-      <c r="B147" s="2" t="n"/>
-      <c r="E147" s="2" t="n"/>
-      <c r="F147" s="2" t="n"/>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>wegen</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>woog, wogen</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>gewogen</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>weigh</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="148" s="3">
-      <c r="B148" s="2" t="n"/>
-      <c r="E148" s="2" t="n"/>
-      <c r="F148" s="2" t="n"/>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>werpen</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>wierp, wierpen</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>geworpen</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>throw</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="149" s="3">
-      <c r="B149" s="2" t="n"/>
-      <c r="E149" s="2" t="n"/>
-      <c r="F149" s="2" t="n"/>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>weten</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>wist, wisten</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>geweten</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="150" s="3">
-      <c r="B150" s="2" t="n"/>
-      <c r="E150" s="2" t="n"/>
-      <c r="F150" s="2" t="n"/>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>wijzen</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>wees, wezen</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>gewezen</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>show, point</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="151" s="3">
-      <c r="B151" s="2" t="n"/>
-      <c r="E151" s="2" t="n"/>
-      <c r="F151" s="2" t="n"/>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>willen</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>wilde / wou, wilden</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>gewild</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="152" s="3">
-      <c r="B152" s="2" t="n"/>
-      <c r="E152" s="2" t="n"/>
-      <c r="F152" s="2" t="n"/>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>winnen</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>won, wonnen</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>gewonnen</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="153" s="3">
-      <c r="B153" s="2" t="n"/>
-      <c r="D153" s="2" t="n"/>
-      <c r="E153" s="2" t="n"/>
-      <c r="F153" s="2" t="n"/>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>worden</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>werd, werden</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>geworden</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="154" s="3">
-      <c r="B154" s="2" t="n"/>
-      <c r="E154" s="2" t="n"/>
-      <c r="F154" s="2" t="n"/>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>wrijven</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>wreef, wreven</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>gewreven</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>rub</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="155" s="3">
-      <c r="B155" s="2" t="n"/>
-      <c r="E155" s="2" t="n"/>
-      <c r="F155" s="2" t="n"/>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>zeggen</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>zei, zeiden</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr">
+        <is>
+          <t>gezegd</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>say</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="156" s="3">
-      <c r="B156" s="2" t="n"/>
-      <c r="E156" s="2" t="n"/>
-      <c r="F156" s="2" t="n"/>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>zenden</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>zond, zonden</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>gezonden</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="157" s="3">
-      <c r="B157" s="2" t="n"/>
-      <c r="E157" s="2" t="n"/>
-      <c r="F157" s="2" t="n"/>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>zien</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>zag, zagen</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>gezien</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="158" s="3">
-      <c r="B158" s="2" t="n"/>
-      <c r="D158" s="2" t="n"/>
-      <c r="E158" s="2" t="n"/>
-      <c r="F158" s="2" t="n"/>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>zijn</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">was, waren </t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>geweest</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="159" s="3">
-      <c r="B159" s="2" t="n"/>
-      <c r="E159" s="2" t="n"/>
-      <c r="F159" s="2" t="n"/>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>zingen</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">zong, zongen </t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>gezongen</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>sing</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="160" s="3">
-      <c r="B160" s="2" t="n"/>
-      <c r="D160" s="2" t="n"/>
-      <c r="E160" s="2" t="n"/>
-      <c r="F160" s="2" t="n"/>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>zinken</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>zonk, zonken</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>gezonken</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>sink</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="161" s="3">
-      <c r="B161" s="2" t="n"/>
-      <c r="E161" s="2" t="n"/>
-      <c r="F161" s="2" t="n"/>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>zitten</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>zat, zaten</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>gezeten</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="162" s="3">
-      <c r="B162" s="2" t="n"/>
-      <c r="E162" s="2" t="n"/>
-      <c r="F162" s="2" t="n"/>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>zoeken</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>zocht, zochten</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>gezocht</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>search, look</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="163" s="3">
-      <c r="B163" s="2" t="n"/>
-      <c r="E163" s="2" t="n"/>
-      <c r="F163" s="2" t="n"/>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>zullen</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>zou, zouden</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>will, would</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="164" s="3">
-      <c r="B164" s="2" t="n"/>
-      <c r="D164" s="2" t="n"/>
-      <c r="E164" s="2" t="n"/>
-      <c r="F164" s="2" t="n"/>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>zwemmen</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>zwom, zwommen</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>(is)</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>gezwommen</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>swim</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="165" s="3">
-      <c r="B165" s="2" t="n"/>
-      <c r="D165" s="2" t="n"/>
-      <c r="E165" s="2" t="n"/>
-      <c r="F165" s="2" t="n"/>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>zweren</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>zwoer, zwoeren</t>
+        </is>
+      </c>
+      <c r="D165" s="4" t="n"/>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>gezworen</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>swear</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="12.8" r="166" s="3">
-      <c r="B166" s="2" t="n"/>
-      <c r="E166" s="2" t="n"/>
-      <c r="F166" s="2" t="n"/>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>zwijgen</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>zweeg, zwegen</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>gezwegen</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>be silent</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
@@ -3703,12 +4504,12 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A27" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="B123:C123 A2"/>
+      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="B139:F166 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="15.8"/>
+    <col customWidth="1" max="2" min="2" style="2" width="15.79"/>
     <col customWidth="1" max="5" min="5" style="2" width="14.76"/>
   </cols>
   <sheetData>
@@ -4448,10 +5249,10 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A12" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="B123:C123 A12"/>
+      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="B139:F166 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="15.48"/>
   </cols>
@@ -5050,10 +5851,10 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B123:C123 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="17.06"/>
   </cols>
@@ -5312,12 +6113,12 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A36" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B123:C123 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="25.21"/>
+    <col customWidth="1" max="2" min="2" style="2" width="25.22"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="3">
@@ -6291,10 +7092,10 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A30" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B123:C123 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="20.74"/>
     <col customWidth="1" max="5" min="5" style="2" width="17.54"/>
@@ -7308,10 +8109,10 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A19" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B123:C123 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="27.65"/>
   </cols>
@@ -7914,12 +8715,12 @@
           <t>zweren</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>zwoer, zwoeren</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n"/>
+      <c r="C27" s="4" t="n"/>
       <c r="D27" s="2" t="inlineStr">
         <is>
           <t>gezworen</t>

--- a/Werkwoorden_Lijst.xlsx
+++ b/Werkwoorden_Lijst.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -43,11 +43,6 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -78,20 +73,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -395,13 +387,13 @@
   </sheetPr>
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="B139" activeCellId="0" pane="topLeft" sqref="B139:F166"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A118" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
+      <selection activeCell="B123" activeCellId="0" pane="topLeft" sqref="B123:C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="2" width="15.91"/>
+    <col customWidth="1" max="3" min="3" style="2" width="24.68"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="3">
@@ -593,11 +585,7 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="8" s="3">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>doe</t>
-        </is>
-      </c>
+      <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>doen</t>
@@ -3457,1028 +3445,239 @@
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="123" s="3">
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>staan</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>stond, stonden</t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>gestaan</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>stand</t>
-        </is>
-      </c>
+      <c r="A123" s="2" t="inlineStr"/>
+      <c r="B123" s="2" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" s="2" t="inlineStr"/>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="12.8" r="124" s="3">
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>steken</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>stak, staken</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>gestoken</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>stab, sting</t>
-        </is>
-      </c>
+      <c r="B124" s="2" t="n"/>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="125" s="3">
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>stelen</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>stal, stalen</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>gestolen</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>steal</t>
-        </is>
-      </c>
+      <c r="B125" s="2" t="n"/>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="126" s="3">
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>sterven</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>stierf, stierven</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>gestorven</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>die</t>
-        </is>
-      </c>
+      <c r="B126" s="2" t="n"/>
+      <c r="D126" s="2" t="n"/>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="127" s="3">
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>stijgen</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>steeg, stegen</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>isgestegen</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>climb</t>
-        </is>
-      </c>
+      <c r="B127" s="2" t="n"/>
+      <c r="D127" s="2" t="n"/>
+      <c r="E127" s="2" t="n"/>
+      <c r="F127" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="128" s="3">
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>treden</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>trad, traden</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>getreden</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>step</t>
-        </is>
-      </c>
+      <c r="B128" s="2" t="n"/>
+      <c r="D128" s="2" t="n"/>
+      <c r="E128" s="2" t="n"/>
+      <c r="F128" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="129" s="3">
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>treffen</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>trof, troffen</t>
-        </is>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>getroffen</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>hit</t>
-        </is>
-      </c>
+      <c r="B129" s="2" t="n"/>
+      <c r="E129" s="2" t="n"/>
+      <c r="F129" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="130" s="3">
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>trekken</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>trok, trokken</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>getrokken</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
+      <c r="B130" s="2" t="n"/>
+      <c r="E130" s="2" t="n"/>
+      <c r="F130" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="131" s="3">
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>vallen</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>viel, vielen</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>gevallen</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>fall</t>
-        </is>
-      </c>
+      <c r="B131" s="2" t="n"/>
+      <c r="D131" s="2" t="n"/>
+      <c r="E131" s="2" t="n"/>
+      <c r="F131" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="132" s="3">
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>vangen</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>ving, vingen</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>gevangen</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>catch</t>
-        </is>
-      </c>
+      <c r="B132" s="2" t="n"/>
+      <c r="E132" s="2" t="n"/>
+      <c r="F132" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="133" s="3">
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>varen</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>voer, voeren</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="inlineStr">
-        <is>
-          <t>(is)</t>
-        </is>
-      </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>gevaren</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>sail</t>
-        </is>
-      </c>
+      <c r="B133" s="2" t="n"/>
+      <c r="D133" s="2" t="n"/>
+      <c r="E133" s="2" t="n"/>
+      <c r="F133" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="134" s="3">
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>vechten</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>vocht, vochten</t>
-        </is>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>gevochten</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>fight</t>
-        </is>
-      </c>
+      <c r="B134" s="2" t="n"/>
+      <c r="E134" s="2" t="n"/>
+      <c r="F134" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="135" s="3">
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>verbieden</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>verbood, verboden</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>verboden</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>forbid</t>
-        </is>
-      </c>
+      <c r="B135" s="2" t="n"/>
+      <c r="E135" s="2" t="n"/>
+      <c r="F135" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="136" s="3">
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>verdwijnen</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>verdween, verdwenen</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>verdwenen</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>disappear</t>
-        </is>
-      </c>
+      <c r="B136" s="2" t="n"/>
+      <c r="D136" s="2" t="n"/>
+      <c r="E136" s="2" t="n"/>
+      <c r="F136" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="137" s="3">
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>vergeten</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>vergat, vergaten</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>(is)</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>vergeten</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>forget</t>
-        </is>
-      </c>
+      <c r="B137" s="2" t="n"/>
+      <c r="D137" s="2" t="n"/>
+      <c r="E137" s="2" t="n"/>
+      <c r="F137" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="138" s="3">
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>verliezen</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>verloor, verloren</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr">
-        <is>
-          <t>verloren</t>
-        </is>
-      </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>lose</t>
-        </is>
-      </c>
+      <c r="B138" s="2" t="n"/>
+      <c r="E138" s="2" t="n"/>
+      <c r="F138" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="139" s="3">
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>vermijden</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>vermeed, vermeden</t>
-        </is>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>vermeden</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>avoid</t>
-        </is>
-      </c>
+      <c r="B139" s="2" t="n"/>
+      <c r="E139" s="2" t="n"/>
+      <c r="F139" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="140" s="3">
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>vinden</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>vond, vonden</t>
-        </is>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>gevonden</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>find</t>
-        </is>
-      </c>
+      <c r="B140" s="2" t="n"/>
+      <c r="E140" s="2" t="n"/>
+      <c r="F140" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="141" s="3">
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>vliegen</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>vloog, vlogen</t>
-        </is>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>geviogen</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>fly</t>
-        </is>
-      </c>
+      <c r="B141" s="2" t="n"/>
+      <c r="E141" s="2" t="n"/>
+      <c r="F141" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="142" s="3">
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>vouwen</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>vouwde, vouwden</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>gevouwen</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>fold</t>
-        </is>
-      </c>
+      <c r="B142" s="2" t="n"/>
+      <c r="E142" s="2" t="n"/>
+      <c r="F142" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="143" s="3">
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>vragen</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>vroeg, vroegen</t>
-        </is>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>gevraagd</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
+      <c r="B143" s="2" t="n"/>
+      <c r="E143" s="2" t="n"/>
+      <c r="F143" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="144" s="3">
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>vriezen</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>vroor, vroren</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>gevroren</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>freeze</t>
-        </is>
-      </c>
+      <c r="B144" s="2" t="n"/>
+      <c r="E144" s="2" t="n"/>
+      <c r="F144" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="145" s="3">
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>waaien</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">waaide, waaiden, woei, woeien </t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>gewaaid</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>blow</t>
-        </is>
-      </c>
+      <c r="B145" s="2" t="n"/>
+      <c r="E145" s="2" t="n"/>
+      <c r="F145" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="146" s="3">
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>wassen</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>waste, wasten</t>
-        </is>
-      </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>gewassen</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>wash</t>
-        </is>
-      </c>
+      <c r="B146" s="2" t="n"/>
+      <c r="E146" s="2" t="n"/>
+      <c r="F146" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="147" s="3">
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>wegen</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>woog, wogen</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="inlineStr">
-        <is>
-          <t>gewogen</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>weigh</t>
-        </is>
-      </c>
+      <c r="B147" s="2" t="n"/>
+      <c r="E147" s="2" t="n"/>
+      <c r="F147" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="148" s="3">
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>werpen</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>wierp, wierpen</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="inlineStr">
-        <is>
-          <t>geworpen</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>throw</t>
-        </is>
-      </c>
+      <c r="B148" s="2" t="n"/>
+      <c r="E148" s="2" t="n"/>
+      <c r="F148" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="149" s="3">
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>weten</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>wist, wisten</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr">
-        <is>
-          <t>geweten</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
+      <c r="B149" s="2" t="n"/>
+      <c r="E149" s="2" t="n"/>
+      <c r="F149" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="150" s="3">
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>wijzen</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>wees, wezen</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>gewezen</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>show, point</t>
-        </is>
-      </c>
+      <c r="B150" s="2" t="n"/>
+      <c r="E150" s="2" t="n"/>
+      <c r="F150" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="151" s="3">
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>willen</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>wilde / wou, wilden</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>gewild</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>want</t>
-        </is>
-      </c>
+      <c r="B151" s="2" t="n"/>
+      <c r="E151" s="2" t="n"/>
+      <c r="F151" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="152" s="3">
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>winnen</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>won, wonnen</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>gewonnen</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>win</t>
-        </is>
-      </c>
+      <c r="B152" s="2" t="n"/>
+      <c r="E152" s="2" t="n"/>
+      <c r="F152" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="153" s="3">
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t>worden</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>werd, werden</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>geworden</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
+      <c r="B153" s="2" t="n"/>
+      <c r="D153" s="2" t="n"/>
+      <c r="E153" s="2" t="n"/>
+      <c r="F153" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="154" s="3">
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>wrijven</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>wreef, wreven</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="inlineStr">
-        <is>
-          <t>gewreven</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="inlineStr">
-        <is>
-          <t>rub</t>
-        </is>
-      </c>
+      <c r="B154" s="2" t="n"/>
+      <c r="E154" s="2" t="n"/>
+      <c r="F154" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="155" s="3">
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>zeggen</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>zei, zeiden</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr">
-        <is>
-          <t>gezegd</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>say</t>
-        </is>
-      </c>
+      <c r="B155" s="2" t="n"/>
+      <c r="E155" s="2" t="n"/>
+      <c r="F155" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="156" s="3">
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>zenden</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>zond, zonden</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>gezonden</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>send</t>
-        </is>
-      </c>
+      <c r="B156" s="2" t="n"/>
+      <c r="E156" s="2" t="n"/>
+      <c r="F156" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="157" s="3">
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>zien</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>zag, zagen</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>gezien</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>see</t>
-        </is>
-      </c>
+      <c r="B157" s="2" t="n"/>
+      <c r="E157" s="2" t="n"/>
+      <c r="F157" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="158" s="3">
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>zijn</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">was, waren </t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>geweest</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
+      <c r="B158" s="2" t="n"/>
+      <c r="D158" s="2" t="n"/>
+      <c r="E158" s="2" t="n"/>
+      <c r="F158" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="159" s="3">
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>zingen</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">zong, zongen </t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>gezongen</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>sing</t>
-        </is>
-      </c>
+      <c r="B159" s="2" t="n"/>
+      <c r="E159" s="2" t="n"/>
+      <c r="F159" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="160" s="3">
-      <c r="B160" s="2" t="inlineStr">
-        <is>
-          <t>zinken</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>zonk, zonken</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>gezonken</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>sink</t>
-        </is>
-      </c>
+      <c r="B160" s="2" t="n"/>
+      <c r="D160" s="2" t="n"/>
+      <c r="E160" s="2" t="n"/>
+      <c r="F160" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="161" s="3">
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>zitten</t>
-        </is>
-      </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>zat, zaten</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>gezeten</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
+      <c r="B161" s="2" t="n"/>
+      <c r="E161" s="2" t="n"/>
+      <c r="F161" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="162" s="3">
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>zoeken</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>zocht, zochten</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>gezocht</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>search, look</t>
-        </is>
-      </c>
+      <c r="B162" s="2" t="n"/>
+      <c r="E162" s="2" t="n"/>
+      <c r="F162" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="163" s="3">
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>zullen</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>zou, zouden</t>
-        </is>
-      </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>will, would</t>
-        </is>
-      </c>
+      <c r="B163" s="2" t="n"/>
+      <c r="E163" s="2" t="n"/>
+      <c r="F163" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="164" s="3">
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>zwemmen</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>zwom, zwommen</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="inlineStr">
-        <is>
-          <t>(is)</t>
-        </is>
-      </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>gezwommen</t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="inlineStr">
-        <is>
-          <t>swim</t>
-        </is>
-      </c>
+      <c r="B164" s="2" t="n"/>
+      <c r="D164" s="2" t="n"/>
+      <c r="E164" s="2" t="n"/>
+      <c r="F164" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="165" s="3">
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>zweren</t>
-        </is>
-      </c>
-      <c r="C165" s="4" t="inlineStr">
-        <is>
-          <t>zwoer, zwoeren</t>
-        </is>
-      </c>
-      <c r="D165" s="4" t="n"/>
-      <c r="E165" s="2" t="inlineStr">
-        <is>
-          <t>gezworen</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr">
-        <is>
-          <t>swear</t>
-        </is>
-      </c>
+      <c r="B165" s="2" t="n"/>
+      <c r="D165" s="2" t="n"/>
+      <c r="E165" s="2" t="n"/>
+      <c r="F165" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="166" s="3">
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>zwijgen</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>zweeg, zwegen</t>
-        </is>
-      </c>
-      <c r="E166" s="2" t="inlineStr">
-        <is>
-          <t>gezwegen</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>be silent</t>
-        </is>
-      </c>
+      <c r="B166" s="2" t="n"/>
+      <c r="E166" s="2" t="n"/>
+      <c r="F166" s="2" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
@@ -4504,12 +3703,12 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A27" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="B139:F166 A2"/>
+      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="B123:C123 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="15.79"/>
+    <col customWidth="1" max="2" min="2" style="2" width="15.8"/>
     <col customWidth="1" max="5" min="5" style="2" width="14.76"/>
   </cols>
   <sheetData>
@@ -5249,10 +4448,10 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A12" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="B139:F166 A12"/>
+      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="B123:C123 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="15.48"/>
   </cols>
@@ -5851,10 +5050,10 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B123:C123 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="17.06"/>
   </cols>
@@ -6113,12 +5312,12 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A36" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B123:C123 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="25.22"/>
+    <col customWidth="1" max="2" min="2" style="2" width="25.21"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="3">
@@ -7092,10 +6291,10 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A30" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B123:C123 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="20.74"/>
     <col customWidth="1" max="5" min="5" style="2" width="17.54"/>
@@ -8109,10 +7308,10 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A19" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B123:C123 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="27.65"/>
   </cols>
@@ -8715,12 +7914,12 @@
           <t>zweren</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>zwoer, zwoeren</t>
         </is>
       </c>
-      <c r="C27" s="4" t="n"/>
+      <c r="C27" s="2" t="n"/>
       <c r="D27" s="2" t="inlineStr">
         <is>
           <t>gezworen</t>

--- a/Werkwoorden_Lijst.xlsx
+++ b/Werkwoorden_Lijst.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
@@ -69,38 +69,106 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,16 +463,16 @@
   </sheetPr>
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="B139" activeCellId="0" pane="topLeft" sqref="B139:F166"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B139" activeCellId="0" sqref="B139:F166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="2" width="15.91"/>
+    <col width="15.91" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
+    <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Stam</t>
@@ -436,7 +504,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
+    <row r="2" ht="12.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>begin</t>
@@ -468,7 +536,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3">
+    <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -492,7 +560,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="3">
+    <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -516,7 +584,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="3">
+    <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -544,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="3">
+    <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -568,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="3">
+    <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -592,7 +660,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="3">
+    <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>doe</t>
@@ -620,7 +688,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="3">
+    <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -644,7 +712,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="3">
+    <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -668,7 +736,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="3">
+    <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -692,7 +760,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="3">
+    <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -716,7 +784,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="3">
+    <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -725,7 +793,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>ging,gingen</t>
+          <t>ging, gingen</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -744,7 +812,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="3">
+    <row r="14" ht="12.8" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -768,7 +836,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="3">
+    <row r="15" ht="12.8" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -792,7 +860,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="3">
+    <row r="16" ht="12.8" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -801,7 +869,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>hielp,hielpen</t>
+          <t>hielp, hielpen</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -816,7 +884,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="3">
+    <row r="17" ht="12.8" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="3">
+    <row r="18" ht="12.8" customHeight="1" s="3">
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
@@ -864,7 +932,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="3">
+    <row r="19" ht="12.8" customHeight="1" s="3">
       <c r="A19" s="2" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -888,7 +956,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="3">
+    <row r="20" ht="12.8" customHeight="1" s="3">
       <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
@@ -916,7 +984,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="3">
+    <row r="21" ht="12.8" customHeight="1" s="3">
       <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
@@ -940,7 +1008,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="3">
+    <row r="22" ht="12.8" customHeight="1" s="3">
       <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
@@ -949,7 +1017,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>kreeg,kregen</t>
+          <t>kreeg, kregen</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -964,7 +1032,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="3">
+    <row r="23" ht="12.8" customHeight="1" s="3">
       <c r="A23" s="2" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
@@ -988,7 +1056,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="3">
+    <row r="24" ht="12.8" customHeight="1" s="3">
       <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
@@ -1012,7 +1080,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="3">
+    <row r="25" ht="12.8" customHeight="1" s="3">
       <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
@@ -1036,7 +1104,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="26" s="3">
+    <row r="26" ht="12.8" customHeight="1" s="3">
       <c r="A26" s="2" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -1060,7 +1128,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="27" s="3">
+    <row r="27" ht="12.8" customHeight="1" s="3">
       <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
@@ -1084,7 +1152,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="28" s="3">
+    <row r="28" ht="12.8" customHeight="1" s="3">
       <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
@@ -1108,7 +1176,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="29" s="3">
+    <row r="29" ht="12.8" customHeight="1" s="3">
       <c r="A29" s="2" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
@@ -1136,7 +1204,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="30" s="3">
+    <row r="30" ht="12.8" customHeight="1" s="3">
       <c r="A30" s="2" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
@@ -1160,7 +1228,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="31" s="3">
+    <row r="31" ht="12.8" customHeight="1" s="3">
       <c r="A31" s="2" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr">
         <is>
@@ -1184,7 +1252,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="32" s="3">
+    <row r="32" ht="12.8" customHeight="1" s="3">
       <c r="A32" s="2" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr">
         <is>
@@ -1208,7 +1276,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="33" s="3">
+    <row r="33" ht="12.8" customHeight="1" s="3">
       <c r="A33" s="2" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
@@ -1236,7 +1304,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="34" s="3">
+    <row r="34" ht="12.8" customHeight="1" s="3">
       <c r="A34" s="2" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
@@ -1260,7 +1328,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="35" s="3">
+    <row r="35" ht="12.8" customHeight="1" s="3">
       <c r="A35" s="2" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
@@ -1284,7 +1352,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="36" s="3">
+    <row r="36" ht="12.8" customHeight="1" s="3">
       <c r="A36" s="2" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr">
         <is>
@@ -1308,7 +1376,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="37" s="3">
+    <row r="37" ht="12.8" customHeight="1" s="3">
       <c r="A37" s="2" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr">
         <is>
@@ -1332,7 +1400,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="38" s="3">
+    <row r="38" ht="12.8" customHeight="1" s="3">
       <c r="A38" s="2" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr">
         <is>
@@ -1356,7 +1424,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="39" s="3">
+    <row r="39" ht="12.8" customHeight="1" s="3">
       <c r="A39" s="2" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
@@ -1384,7 +1452,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="40" s="3">
+    <row r="40" ht="12.8" customHeight="1" s="3">
       <c r="A40" s="2" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr">
         <is>
@@ -1408,7 +1476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="41" s="3">
+    <row r="41" ht="12.8" customHeight="1" s="3">
       <c r="A41" s="2" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr">
         <is>
@@ -1432,7 +1500,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="42" s="3">
+    <row r="42" ht="12.8" customHeight="1" s="3">
       <c r="A42" s="2" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
@@ -1460,7 +1528,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="43" s="3">
+    <row r="43" ht="12.8" customHeight="1" s="3">
       <c r="A43" s="2" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr">
         <is>
@@ -1484,7 +1552,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="44" s="3">
+    <row r="44" ht="12.8" customHeight="1" s="3">
       <c r="A44" s="2" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr">
         <is>
@@ -1508,7 +1576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="45" s="3">
+    <row r="45" ht="12.8" customHeight="1" s="3">
       <c r="A45" s="2" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
@@ -1532,7 +1600,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="46" s="3">
+    <row r="46" ht="12.8" customHeight="1" s="3">
       <c r="A46" s="2" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
@@ -1556,7 +1624,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="47" s="3">
+    <row r="47" ht="12.8" customHeight="1" s="3">
       <c r="A47" s="2" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr">
         <is>
@@ -1584,7 +1652,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="48" s="3">
+    <row r="48" ht="12.8" customHeight="1" s="3">
       <c r="A48" s="2" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
@@ -1608,7 +1676,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="49" s="3">
+    <row r="49" ht="12.8" customHeight="1" s="3">
       <c r="A49" s="2" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
@@ -1632,7 +1700,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="50" s="3">
+    <row r="50" ht="12.8" customHeight="1" s="3">
       <c r="A50" s="2" t="inlineStr"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
@@ -1656,7 +1724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="51" s="3">
+    <row r="51" ht="12.8" customHeight="1" s="3">
       <c r="A51" s="2" t="inlineStr"/>
       <c r="B51" s="2" t="inlineStr">
         <is>
@@ -1680,7 +1748,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="52" s="3">
+    <row r="52" ht="12.8" customHeight="1" s="3">
       <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
@@ -1704,7 +1772,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="53" s="3">
+    <row r="53" ht="12.8" customHeight="1" s="3">
       <c r="A53" s="2" t="inlineStr"/>
       <c r="B53" s="2" t="inlineStr">
         <is>
@@ -1732,7 +1800,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="54" s="3">
+    <row r="54" ht="12.8" customHeight="1" s="3">
       <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
@@ -1756,7 +1824,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="55" s="3">
+    <row r="55" ht="12.8" customHeight="1" s="3">
       <c r="A55" s="2" t="inlineStr"/>
       <c r="B55" s="2" t="inlineStr">
         <is>
@@ -1780,7 +1848,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="56" s="3">
+    <row r="56" ht="12.8" customHeight="1" s="3">
       <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
@@ -1804,7 +1872,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="57" s="3">
+    <row r="57" ht="12.8" customHeight="1" s="3">
       <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1900,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="58" s="3">
+    <row r="58" ht="12.8" customHeight="1" s="3">
       <c r="A58" s="2" t="inlineStr"/>
       <c r="B58" s="2" t="inlineStr">
         <is>
@@ -1856,7 +1924,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="59" s="3">
+    <row r="59" ht="12.8" customHeight="1" s="3">
       <c r="A59" s="2" t="inlineStr"/>
       <c r="B59" s="2" t="inlineStr">
         <is>
@@ -1880,7 +1948,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="60" s="3">
+    <row r="60" ht="12.8" customHeight="1" s="3">
       <c r="A60" s="2" t="inlineStr"/>
       <c r="B60" s="2" t="inlineStr">
         <is>
@@ -1904,7 +1972,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="61" s="3">
+    <row r="61" ht="12.8" customHeight="1" s="3">
       <c r="A61" s="2" t="inlineStr"/>
       <c r="B61" s="2" t="inlineStr">
         <is>
@@ -1932,7 +2000,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="62" s="3">
+    <row r="62" ht="12.8" customHeight="1" s="3">
       <c r="A62" s="2" t="inlineStr"/>
       <c r="B62" s="2" t="inlineStr">
         <is>
@@ -1956,7 +2024,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="63" s="3">
+    <row r="63" ht="12.8" customHeight="1" s="3">
       <c r="A63" s="2" t="inlineStr"/>
       <c r="B63" s="2" t="inlineStr">
         <is>
@@ -1980,7 +2048,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="64" s="3">
+    <row r="64" ht="12.8" customHeight="1" s="3">
       <c r="A64" s="2" t="inlineStr"/>
       <c r="B64" s="2" t="inlineStr">
         <is>
@@ -2004,7 +2072,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="65" s="3">
+    <row r="65" ht="12.8" customHeight="1" s="3">
       <c r="A65" s="2" t="inlineStr"/>
       <c r="B65" s="2" t="inlineStr">
         <is>
@@ -2028,7 +2096,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="66" s="3">
+    <row r="66" ht="12.8" customHeight="1" s="3">
       <c r="A66" s="2" t="inlineStr"/>
       <c r="B66" s="2" t="inlineStr">
         <is>
@@ -2052,7 +2120,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="67" s="3">
+    <row r="67" ht="12.8" customHeight="1" s="3">
       <c r="A67" s="2" t="inlineStr"/>
       <c r="B67" s="2" t="inlineStr">
         <is>
@@ -2080,7 +2148,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="68" s="3">
+    <row r="68" ht="12.8" customHeight="1" s="3">
       <c r="A68" s="2" t="inlineStr"/>
       <c r="B68" s="2" t="inlineStr">
         <is>
@@ -2104,7 +2172,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="69" s="3">
+    <row r="69" ht="12.8" customHeight="1" s="3">
       <c r="A69" s="2" t="inlineStr"/>
       <c r="B69" s="2" t="inlineStr">
         <is>
@@ -2132,7 +2200,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="70" s="3">
+    <row r="70" ht="12.8" customHeight="1" s="3">
       <c r="A70" s="2" t="inlineStr"/>
       <c r="B70" s="2" t="inlineStr">
         <is>
@@ -2160,7 +2228,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="71" s="3">
+    <row r="71" ht="12.8" customHeight="1" s="3">
       <c r="A71" s="2" t="inlineStr"/>
       <c r="B71" s="2" t="inlineStr">
         <is>
@@ -2184,7 +2252,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="72" s="3">
+    <row r="72" ht="12.8" customHeight="1" s="3">
       <c r="A72" s="2" t="inlineStr"/>
       <c r="B72" s="2" t="inlineStr">
         <is>
@@ -2208,7 +2276,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="73" s="3">
+    <row r="73" ht="12.8" customHeight="1" s="3">
       <c r="A73" s="2" t="inlineStr"/>
       <c r="B73" s="2" t="inlineStr">
         <is>
@@ -2232,7 +2300,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="74" s="3">
+    <row r="74" ht="12.8" customHeight="1" s="3">
       <c r="A74" s="2" t="inlineStr"/>
       <c r="B74" s="2" t="inlineStr">
         <is>
@@ -2260,7 +2328,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="75" s="3">
+    <row r="75" ht="12.8" customHeight="1" s="3">
       <c r="A75" s="2" t="inlineStr"/>
       <c r="B75" s="2" t="inlineStr">
         <is>
@@ -2288,7 +2356,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="76" s="3">
+    <row r="76" ht="12.8" customHeight="1" s="3">
       <c r="A76" s="2" t="inlineStr"/>
       <c r="B76" s="2" t="inlineStr">
         <is>
@@ -2312,7 +2380,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="77" s="3">
+    <row r="77" ht="12.8" customHeight="1" s="3">
       <c r="A77" s="2" t="inlineStr"/>
       <c r="B77" s="2" t="inlineStr">
         <is>
@@ -2336,7 +2404,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="78" s="3">
+    <row r="78" ht="12.8" customHeight="1" s="3">
       <c r="A78" s="2" t="inlineStr"/>
       <c r="B78" s="2" t="inlineStr">
         <is>
@@ -2360,7 +2428,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="79" s="3">
+    <row r="79" ht="12.8" customHeight="1" s="3">
       <c r="A79" s="2" t="inlineStr"/>
       <c r="B79" s="2" t="inlineStr">
         <is>
@@ -2384,7 +2452,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="80" s="3">
+    <row r="80" ht="12.8" customHeight="1" s="3">
       <c r="A80" s="2" t="inlineStr"/>
       <c r="B80" s="2" t="inlineStr">
         <is>
@@ -2408,7 +2476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="81" s="3">
+    <row r="81" ht="12.8" customHeight="1" s="3">
       <c r="A81" s="2" t="inlineStr"/>
       <c r="B81" s="2" t="inlineStr">
         <is>
@@ -2432,7 +2500,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="82" s="3">
+    <row r="82" ht="12.8" customHeight="1" s="3">
       <c r="A82" s="2" t="inlineStr"/>
       <c r="B82" s="2" t="inlineStr">
         <is>
@@ -2456,7 +2524,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="83" s="3">
+    <row r="83" ht="12.8" customHeight="1" s="3">
       <c r="A83" s="2" t="inlineStr"/>
       <c r="B83" s="2" t="inlineStr">
         <is>
@@ -2480,7 +2548,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="84" s="3">
+    <row r="84" ht="12.8" customHeight="1" s="3">
       <c r="A84" s="2" t="inlineStr"/>
       <c r="B84" s="2" t="inlineStr">
         <is>
@@ -2504,7 +2572,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="85" s="3">
+    <row r="85" ht="12.8" customHeight="1" s="3">
       <c r="A85" s="2" t="inlineStr"/>
       <c r="B85" s="2" t="inlineStr">
         <is>
@@ -2532,7 +2600,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="86" s="3">
+    <row r="86" ht="12.8" customHeight="1" s="3">
       <c r="A86" s="2" t="inlineStr"/>
       <c r="B86" s="2" t="inlineStr">
         <is>
@@ -2556,7 +2624,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="87" s="3">
+    <row r="87" ht="12.8" customHeight="1" s="3">
       <c r="A87" s="2" t="inlineStr"/>
       <c r="B87" s="2" t="inlineStr">
         <is>
@@ -2580,7 +2648,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="88" s="3">
+    <row r="88" ht="12.8" customHeight="1" s="3">
       <c r="A88" s="2" t="inlineStr"/>
       <c r="B88" s="2" t="inlineStr">
         <is>
@@ -2604,7 +2672,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="89" s="3">
+    <row r="89" ht="12.8" customHeight="1" s="3">
       <c r="A89" s="2" t="inlineStr"/>
       <c r="B89" s="2" t="inlineStr">
         <is>
@@ -2628,7 +2696,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="90" s="3">
+    <row r="90" ht="12.8" customHeight="1" s="3">
       <c r="A90" s="2" t="inlineStr"/>
       <c r="B90" s="2" t="inlineStr">
         <is>
@@ -2652,7 +2720,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="91" s="3">
+    <row r="91" ht="12.8" customHeight="1" s="3">
       <c r="A91" s="2" t="inlineStr"/>
       <c r="B91" s="2" t="inlineStr">
         <is>
@@ -2676,7 +2744,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="92" s="3">
+    <row r="92" ht="12.8" customHeight="1" s="3">
       <c r="A92" s="2" t="inlineStr"/>
       <c r="B92" s="2" t="inlineStr">
         <is>
@@ -2704,7 +2772,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="93" s="3">
+    <row r="93" ht="12.8" customHeight="1" s="3">
       <c r="A93" s="2" t="inlineStr"/>
       <c r="B93" s="2" t="inlineStr">
         <is>
@@ -2728,7 +2796,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="94" s="3">
+    <row r="94" ht="12.8" customHeight="1" s="3">
       <c r="A94" s="2" t="inlineStr"/>
       <c r="B94" s="2" t="inlineStr">
         <is>
@@ -2752,7 +2820,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="95" s="3">
+    <row r="95" ht="12.8" customHeight="1" s="3">
       <c r="A95" s="2" t="inlineStr"/>
       <c r="B95" s="2" t="inlineStr">
         <is>
@@ -2776,7 +2844,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="96" s="3">
+    <row r="96" ht="12.8" customHeight="1" s="3">
       <c r="A96" s="2" t="inlineStr"/>
       <c r="B96" s="2" t="inlineStr">
         <is>
@@ -2804,7 +2872,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="97" s="3">
+    <row r="97" ht="12.8" customHeight="1" s="3">
       <c r="A97" s="2" t="inlineStr"/>
       <c r="B97" s="2" t="inlineStr">
         <is>
@@ -2832,7 +2900,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="98" s="3">
+    <row r="98" ht="12.8" customHeight="1" s="3">
       <c r="A98" s="2" t="inlineStr"/>
       <c r="B98" s="2" t="inlineStr">
         <is>
@@ -2860,7 +2928,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="99" s="3">
+    <row r="99" ht="12.8" customHeight="1" s="3">
       <c r="A99" s="2" t="inlineStr"/>
       <c r="B99" s="2" t="inlineStr">
         <is>
@@ -2884,7 +2952,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="100" s="3">
+    <row r="100" ht="12.8" customHeight="1" s="3">
       <c r="A100" s="2" t="inlineStr"/>
       <c r="B100" s="2" t="inlineStr">
         <is>
@@ -2908,7 +2976,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="101" s="3">
+    <row r="101" ht="12.8" customHeight="1" s="3">
       <c r="A101" s="2" t="inlineStr"/>
       <c r="B101" s="2" t="inlineStr">
         <is>
@@ -2936,7 +3004,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="102" s="3">
+    <row r="102" ht="12.8" customHeight="1" s="3">
       <c r="A102" s="2" t="inlineStr"/>
       <c r="B102" s="2" t="inlineStr">
         <is>
@@ -2960,7 +3028,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="103" s="3">
+    <row r="103" ht="12.8" customHeight="1" s="3">
       <c r="A103" s="2" t="inlineStr"/>
       <c r="B103" s="2" t="inlineStr">
         <is>
@@ -2988,7 +3056,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="104" s="3">
+    <row r="104" ht="12.8" customHeight="1" s="3">
       <c r="A104" s="2" t="inlineStr"/>
       <c r="B104" s="2" t="inlineStr">
         <is>
@@ -3012,7 +3080,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="105" s="3">
+    <row r="105" ht="12.8" customHeight="1" s="3">
       <c r="A105" s="2" t="inlineStr"/>
       <c r="B105" s="2" t="inlineStr">
         <is>
@@ -3040,7 +3108,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="106" s="3">
+    <row r="106" ht="12.8" customHeight="1" s="3">
       <c r="A106" s="2" t="inlineStr"/>
       <c r="B106" s="2" t="inlineStr">
         <is>
@@ -3064,7 +3132,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="107" s="3">
+    <row r="107" ht="12.8" customHeight="1" s="3">
       <c r="A107" s="2" t="inlineStr"/>
       <c r="B107" s="2" t="inlineStr">
         <is>
@@ -3088,7 +3156,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="108" s="3">
+    <row r="108" ht="12.8" customHeight="1" s="3">
       <c r="A108" s="2" t="inlineStr"/>
       <c r="B108" s="2" t="inlineStr">
         <is>
@@ -3112,7 +3180,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="109" s="3">
+    <row r="109" ht="12.8" customHeight="1" s="3">
       <c r="A109" s="2" t="inlineStr"/>
       <c r="B109" s="2" t="inlineStr">
         <is>
@@ -3136,7 +3204,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="110" s="3">
+    <row r="110" ht="12.8" customHeight="1" s="3">
       <c r="A110" s="2" t="inlineStr"/>
       <c r="B110" s="2" t="inlineStr">
         <is>
@@ -3160,7 +3228,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="111" s="3">
+    <row r="111" ht="12.8" customHeight="1" s="3">
       <c r="A111" s="2" t="inlineStr"/>
       <c r="B111" s="2" t="inlineStr">
         <is>
@@ -3184,7 +3252,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="112" s="3">
+    <row r="112" ht="12.8" customHeight="1" s="3">
       <c r="A112" s="2" t="inlineStr"/>
       <c r="B112" s="2" t="inlineStr">
         <is>
@@ -3208,7 +3276,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="113" s="3">
+    <row r="113" ht="12.8" customHeight="1" s="3">
       <c r="A113" s="2" t="inlineStr"/>
       <c r="B113" s="2" t="inlineStr">
         <is>
@@ -3232,7 +3300,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="114" s="3">
+    <row r="114" ht="12.8" customHeight="1" s="3">
       <c r="A114" s="2" t="inlineStr"/>
       <c r="B114" s="2" t="inlineStr">
         <is>
@@ -3256,7 +3324,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="115" s="3">
+    <row r="115" ht="12.8" customHeight="1" s="3">
       <c r="A115" s="2" t="inlineStr"/>
       <c r="B115" s="2" t="inlineStr">
         <is>
@@ -3280,7 +3348,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="116" s="3">
+    <row r="116" ht="12.8" customHeight="1" s="3">
       <c r="A116" s="2" t="inlineStr"/>
       <c r="B116" s="2" t="inlineStr">
         <is>
@@ -3304,7 +3372,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="117" s="3">
+    <row r="117" ht="12.8" customHeight="1" s="3">
       <c r="A117" s="2" t="inlineStr"/>
       <c r="B117" s="2" t="inlineStr">
         <is>
@@ -3328,7 +3396,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="118" s="3">
+    <row r="118" ht="12.8" customHeight="1" s="3">
       <c r="A118" s="2" t="inlineStr"/>
       <c r="B118" s="2" t="inlineStr">
         <is>
@@ -3352,7 +3420,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="119" s="3">
+    <row r="119" ht="12.8" customHeight="1" s="3">
       <c r="A119" s="2" t="inlineStr"/>
       <c r="B119" s="2" t="inlineStr">
         <is>
@@ -3380,7 +3448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="120" s="3">
+    <row r="120" ht="12.8" customHeight="1" s="3">
       <c r="A120" s="2" t="inlineStr"/>
       <c r="B120" s="2" t="inlineStr">
         <is>
@@ -3408,7 +3476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="121" s="3">
+    <row r="121" ht="12.8" customHeight="1" s="3">
       <c r="A121" s="2" t="inlineStr"/>
       <c r="B121" s="2" t="inlineStr">
         <is>
@@ -3432,7 +3500,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="122" s="3">
+    <row r="122" ht="12.8" customHeight="1" s="3">
       <c r="A122" s="2" t="inlineStr"/>
       <c r="B122" s="2" t="inlineStr">
         <is>
@@ -3456,7 +3524,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="123" s="3">
+    <row r="123" ht="12.8" customHeight="1" s="3">
       <c r="B123" s="2" t="inlineStr">
         <is>
           <t>staan</t>
@@ -3478,7 +3546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="124" s="3">
+    <row r="124" ht="12.8" customHeight="1" s="3">
       <c r="B124" s="2" t="inlineStr">
         <is>
           <t>steken</t>
@@ -3500,7 +3568,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="125" s="3">
+    <row r="125" ht="12.8" customHeight="1" s="3">
       <c r="B125" s="2" t="inlineStr">
         <is>
           <t>stelen</t>
@@ -3522,7 +3590,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="126" s="3">
+    <row r="126" ht="12.8" customHeight="1" s="3">
       <c r="B126" s="2" t="inlineStr">
         <is>
           <t>sterven</t>
@@ -3549,7 +3617,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="127" s="3">
+    <row r="127" ht="12.8" customHeight="1" s="3">
       <c r="B127" s="2" t="inlineStr">
         <is>
           <t>stijgen</t>
@@ -3576,7 +3644,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="128" s="3">
+    <row r="128" ht="12.8" customHeight="1" s="3">
       <c r="B128" s="2" t="inlineStr">
         <is>
           <t>treden</t>
@@ -3603,7 +3671,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="129" s="3">
+    <row r="129" ht="12.8" customHeight="1" s="3">
       <c r="B129" s="2" t="inlineStr">
         <is>
           <t>treffen</t>
@@ -3625,7 +3693,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="130" s="3">
+    <row r="130" ht="12.8" customHeight="1" s="3">
       <c r="B130" s="2" t="inlineStr">
         <is>
           <t>trekken</t>
@@ -3647,7 +3715,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="131" s="3">
+    <row r="131" ht="12.8" customHeight="1" s="3">
       <c r="B131" s="2" t="inlineStr">
         <is>
           <t>vallen</t>
@@ -3674,7 +3742,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="132" s="3">
+    <row r="132" ht="12.8" customHeight="1" s="3">
       <c r="B132" s="2" t="inlineStr">
         <is>
           <t>vangen</t>
@@ -3696,7 +3764,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="133" s="3">
+    <row r="133" ht="12.8" customHeight="1" s="3">
       <c r="B133" s="2" t="inlineStr">
         <is>
           <t>varen</t>
@@ -3723,7 +3791,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="134" s="3">
+    <row r="134" ht="12.8" customHeight="1" s="3">
       <c r="B134" s="2" t="inlineStr">
         <is>
           <t>vechten</t>
@@ -3745,7 +3813,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="135" s="3">
+    <row r="135" ht="12.8" customHeight="1" s="3">
       <c r="B135" s="2" t="inlineStr">
         <is>
           <t>verbieden</t>
@@ -3767,7 +3835,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="136" s="3">
+    <row r="136" ht="12.8" customHeight="1" s="3">
       <c r="B136" s="2" t="inlineStr">
         <is>
           <t>verdwijnen</t>
@@ -3794,7 +3862,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="137" s="3">
+    <row r="137" ht="12.8" customHeight="1" s="3">
       <c r="B137" s="2" t="inlineStr">
         <is>
           <t>vergeten</t>
@@ -3821,7 +3889,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="138" s="3">
+    <row r="138" ht="12.8" customHeight="1" s="3">
       <c r="B138" s="2" t="inlineStr">
         <is>
           <t>verliezen</t>
@@ -3843,7 +3911,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="139" s="3">
+    <row r="139" ht="12.8" customHeight="1" s="3">
       <c r="B139" s="2" t="inlineStr">
         <is>
           <t>vermijden</t>
@@ -3865,7 +3933,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="140" s="3">
+    <row r="140" ht="12.8" customHeight="1" s="3">
       <c r="B140" s="2" t="inlineStr">
         <is>
           <t>vinden</t>
@@ -3887,7 +3955,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="141" s="3">
+    <row r="141" ht="12.8" customHeight="1" s="3">
       <c r="B141" s="2" t="inlineStr">
         <is>
           <t>vliegen</t>
@@ -3909,7 +3977,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="142" s="3">
+    <row r="142" ht="12.8" customHeight="1" s="3">
       <c r="B142" s="2" t="inlineStr">
         <is>
           <t>vouwen</t>
@@ -3931,7 +3999,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="143" s="3">
+    <row r="143" ht="12.8" customHeight="1" s="3">
       <c r="B143" s="2" t="inlineStr">
         <is>
           <t>vragen</t>
@@ -3953,7 +4021,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="144" s="3">
+    <row r="144" ht="12.8" customHeight="1" s="3">
       <c r="B144" s="2" t="inlineStr">
         <is>
           <t>vriezen</t>
@@ -3975,7 +4043,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="145" s="3">
+    <row r="145" ht="12.8" customHeight="1" s="3">
       <c r="B145" s="2" t="inlineStr">
         <is>
           <t>waaien</t>
@@ -3997,7 +4065,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="146" s="3">
+    <row r="146" ht="12.8" customHeight="1" s="3">
       <c r="B146" s="2" t="inlineStr">
         <is>
           <t>wassen</t>
@@ -4019,7 +4087,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="147" s="3">
+    <row r="147" ht="12.8" customHeight="1" s="3">
       <c r="B147" s="2" t="inlineStr">
         <is>
           <t>wegen</t>
@@ -4041,7 +4109,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="148" s="3">
+    <row r="148" ht="12.8" customHeight="1" s="3">
       <c r="B148" s="2" t="inlineStr">
         <is>
           <t>werpen</t>
@@ -4063,7 +4131,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="149" s="3">
+    <row r="149" ht="12.8" customHeight="1" s="3">
       <c r="B149" s="2" t="inlineStr">
         <is>
           <t>weten</t>
@@ -4085,7 +4153,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="150" s="3">
+    <row r="150" ht="12.8" customHeight="1" s="3">
       <c r="B150" s="2" t="inlineStr">
         <is>
           <t>wijzen</t>
@@ -4107,7 +4175,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="151" s="3">
+    <row r="151" ht="12.8" customHeight="1" s="3">
       <c r="B151" s="2" t="inlineStr">
         <is>
           <t>willen</t>
@@ -4129,7 +4197,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="152" s="3">
+    <row r="152" ht="12.8" customHeight="1" s="3">
       <c r="B152" s="2" t="inlineStr">
         <is>
           <t>winnen</t>
@@ -4151,7 +4219,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="153" s="3">
+    <row r="153" ht="12.8" customHeight="1" s="3">
       <c r="B153" s="2" t="inlineStr">
         <is>
           <t>worden</t>
@@ -4178,7 +4246,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="154" s="3">
+    <row r="154" ht="12.8" customHeight="1" s="3">
       <c r="B154" s="2" t="inlineStr">
         <is>
           <t>wrijven</t>
@@ -4200,7 +4268,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="155" s="3">
+    <row r="155" ht="12.8" customHeight="1" s="3">
       <c r="B155" s="2" t="inlineStr">
         <is>
           <t>zeggen</t>
@@ -4222,7 +4290,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="156" s="3">
+    <row r="156" ht="12.8" customHeight="1" s="3">
       <c r="B156" s="2" t="inlineStr">
         <is>
           <t>zenden</t>
@@ -4244,7 +4312,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="157" s="3">
+    <row r="157" ht="12.8" customHeight="1" s="3">
       <c r="B157" s="2" t="inlineStr">
         <is>
           <t>zien</t>
@@ -4266,7 +4334,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="158" s="3">
+    <row r="158" ht="12.8" customHeight="1" s="3">
       <c r="B158" s="2" t="inlineStr">
         <is>
           <t>zijn</t>
@@ -4293,7 +4361,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="159" s="3">
+    <row r="159" ht="12.8" customHeight="1" s="3">
       <c r="B159" s="2" t="inlineStr">
         <is>
           <t>zingen</t>
@@ -4315,7 +4383,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="160" s="3">
+    <row r="160" ht="12.8" customHeight="1" s="3">
       <c r="B160" s="2" t="inlineStr">
         <is>
           <t>zinken</t>
@@ -4342,7 +4410,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="161" s="3">
+    <row r="161" ht="12.8" customHeight="1" s="3">
       <c r="B161" s="2" t="inlineStr">
         <is>
           <t>zitten</t>
@@ -4364,7 +4432,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="162" s="3">
+    <row r="162" ht="12.8" customHeight="1" s="3">
       <c r="B162" s="2" t="inlineStr">
         <is>
           <t>zoeken</t>
@@ -4386,7 +4454,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="163" s="3">
+    <row r="163" ht="12.8" customHeight="1" s="3">
       <c r="B163" s="2" t="inlineStr">
         <is>
           <t>zullen</t>
@@ -4408,7 +4476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="164" s="3">
+    <row r="164" ht="12.8" customHeight="1" s="3">
       <c r="B164" s="2" t="inlineStr">
         <is>
           <t>zwemmen</t>
@@ -4435,7 +4503,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="165" s="3">
+    <row r="165" ht="12.8" customHeight="1" s="3">
       <c r="B165" s="2" t="inlineStr">
         <is>
           <t>zweren</t>
@@ -4458,7 +4526,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="166" s="3">
+    <row r="166" ht="12.8" customHeight="1" s="3">
       <c r="B166" s="2" t="inlineStr">
         <is>
           <t>zwijgen</t>
@@ -4481,10 +4549,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -4503,17 +4571,17 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A27" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="B139:F166 A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A27" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B139:F166 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="15.79"/>
-    <col customWidth="1" max="5" min="5" style="2" width="14.76"/>
+    <col width="15.79" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.76" customWidth="1" style="2" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
+    <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>infinitief</t>
@@ -4540,7 +4608,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
+    <row r="2" ht="12.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>beginnen</t>
@@ -4567,7 +4635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3">
+    <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>begrijpen</t>
@@ -4589,7 +4657,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="3">
+    <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>binden</t>
@@ -4611,7 +4679,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="3">
+    <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>blijven</t>
@@ -4638,7 +4706,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="3">
+    <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>brengen</t>
@@ -4660,7 +4728,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="3">
+    <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>denken</t>
@@ -4682,7 +4750,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="3">
+    <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>doen</t>
@@ -4704,7 +4772,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="3">
+    <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>dragen</t>
@@ -4726,7 +4794,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="3">
+    <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>drijven</t>
@@ -4748,7 +4816,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="3">
+    <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>drinken</t>
@@ -4770,7 +4838,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="3">
+    <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>eten</t>
@@ -4792,7 +4860,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="3">
+    <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>gaan</t>
@@ -4819,7 +4887,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="3">
+    <row r="14" ht="12.8" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>geven</t>
@@ -4841,7 +4909,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="3">
+    <row r="15" ht="12.8" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>hebben</t>
@@ -4863,7 +4931,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="3">
+    <row r="16" ht="12.8" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>helpen</t>
@@ -4885,7 +4953,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="3">
+    <row r="17" ht="12.8" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>houden</t>
@@ -4907,7 +4975,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="3">
+    <row r="18" ht="12.8" customHeight="1" s="3">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>kiezen</t>
@@ -4929,7 +4997,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="3">
+    <row r="19" ht="12.8" customHeight="1" s="3">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>kijken</t>
@@ -4951,7 +5019,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="3">
+    <row r="20" ht="12.8" customHeight="1" s="3">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>komen</t>
@@ -4978,7 +5046,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="3">
+    <row r="21" ht="12.8" customHeight="1" s="3">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>kopen</t>
@@ -5000,7 +5068,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="3">
+    <row r="22" ht="12.8" customHeight="1" s="3">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>krijgen</t>
@@ -5022,7 +5090,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="3">
+    <row r="23" ht="12.8" customHeight="1" s="3">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>kunnen</t>
@@ -5044,7 +5112,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="3">
+    <row r="24" ht="12.8" customHeight="1" s="3">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>lachen</t>
@@ -5066,7 +5134,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="3">
+    <row r="25" ht="12.8" customHeight="1" s="3">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>laten</t>
@@ -5088,7 +5156,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="26" s="3">
+    <row r="26" ht="12.8" customHeight="1" s="3">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>lezen</t>
@@ -5110,7 +5178,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="27" s="3">
+    <row r="27" ht="12.8" customHeight="1" s="3">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>liegen</t>
@@ -5132,7 +5200,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="28" s="3">
+    <row r="28" ht="12.8" customHeight="1" s="3">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>liggen</t>
@@ -5154,7 +5222,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="29" s="3">
+    <row r="29" ht="12.8" customHeight="1" s="3">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>lopen</t>
@@ -5181,7 +5249,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="30" s="3">
+    <row r="30" ht="12.8" customHeight="1" s="3">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>moeten</t>
@@ -5203,7 +5271,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="31" s="3">
+    <row r="31" ht="12.8" customHeight="1" s="3">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>mogen</t>
@@ -5226,10 +5294,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -5248,16 +5316,16 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A12" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="B139:F166 A12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A12" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="B139:F166 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="15.48"/>
+    <col width="15.48" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
+    <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>nemen</t>
@@ -5279,7 +5347,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
+    <row r="2" ht="12.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>rijden</t>
@@ -5306,7 +5374,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3">
+    <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>schrijven</t>
@@ -5328,7 +5396,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="3">
+    <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>slaan</t>
@@ -5350,7 +5418,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="3">
+    <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>slapen</t>
@@ -5372,7 +5440,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="3">
+    <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>sluiten</t>
@@ -5394,7 +5462,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="3">
+    <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>spreken</t>
@@ -5416,7 +5484,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="3">
+    <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>staan</t>
@@ -5438,7 +5506,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="3">
+    <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>treffen</t>
@@ -5460,7 +5528,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="3">
+    <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>trekken</t>
@@ -5482,7 +5550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="3">
+    <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>vallen</t>
@@ -5504,7 +5572,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="3">
+    <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>vechten</t>
@@ -5526,7 +5594,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="3">
+    <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>vergeten</t>
@@ -5553,7 +5621,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="3">
+    <row r="14" ht="12.8" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>verliezen</t>
@@ -5575,7 +5643,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="3">
+    <row r="15" ht="12.8" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>vinden</t>
@@ -5597,7 +5665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="3">
+    <row r="16" ht="12.8" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>vragen</t>
@@ -5619,7 +5687,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="3">
+    <row r="17" ht="12.8" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>weten</t>
@@ -5641,7 +5709,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="3">
+    <row r="18" ht="12.8" customHeight="1" s="3">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>willen</t>
@@ -5663,7 +5731,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="3">
+    <row r="19" ht="12.8" customHeight="1" s="3">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>worden</t>
@@ -5690,7 +5758,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="3">
+    <row r="20" ht="12.8" customHeight="1" s="3">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>zeggen</t>
@@ -5712,7 +5780,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="3">
+    <row r="21" ht="12.8" customHeight="1" s="3">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>zien</t>
@@ -5734,7 +5802,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="3">
+    <row r="22" ht="12.8" customHeight="1" s="3">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>zijn</t>
@@ -5761,7 +5829,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="3">
+    <row r="23" ht="12.8" customHeight="1" s="3">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>zitten</t>
@@ -5783,7 +5851,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="3">
+    <row r="24" ht="12.8" customHeight="1" s="3">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>zoeken</t>
@@ -5805,7 +5873,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="3">
+    <row r="25" ht="12.8" customHeight="1" s="3">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>zullen</t>
@@ -5828,10 +5896,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -5850,16 +5918,16 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B139:F166 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="17.06"/>
+    <col width="17.06" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
+    <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>bakken</t>
@@ -5881,7 +5949,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
+    <row r="2" ht="12.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>bederven</t>
@@ -5908,7 +5976,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3">
+    <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>beginnen</t>
@@ -5935,7 +6003,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="3">
+    <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>begrijpen</t>
@@ -5957,7 +6025,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="3">
+    <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>bewegen</t>
@@ -5979,7 +6047,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="3">
+    <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>bidden</t>
@@ -6001,7 +6069,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="3">
+    <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>bieden</t>
@@ -6023,7 +6091,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="3">
+    <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>bijten</t>
@@ -6045,7 +6113,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="3">
+    <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>binden</t>
@@ -6067,7 +6135,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="3">
+    <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>blazen</t>
@@ -6090,10 +6158,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -6112,16 +6180,16 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A36" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A36" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B139:F166 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="25.22"/>
+    <col width="25.22" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
+    <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>blijken</t>
@@ -6148,7 +6216,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
+    <row r="2" ht="12.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>blijven</t>
@@ -6175,7 +6243,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3">
+    <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>braden</t>
@@ -6197,7 +6265,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="3">
+    <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>breken</t>
@@ -6219,7 +6287,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="3">
+    <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>brengen</t>
@@ -6241,7 +6309,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="3">
+    <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>buigen</t>
@@ -6263,7 +6331,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="3">
+    <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>denken</t>
@@ -6285,7 +6353,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="3">
+    <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>doen</t>
@@ -6307,7 +6375,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="3">
+    <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>dragen</t>
@@ -6329,7 +6397,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="3">
+    <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>drijven</t>
@@ -6351,7 +6419,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="3">
+    <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>drinken</t>
@@ -6373,7 +6441,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="3">
+    <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>druipen</t>
@@ -6400,7 +6468,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="3">
+    <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>eten</t>
@@ -6422,7 +6490,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="3">
+    <row r="14" ht="12.8" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>fluiten</t>
@@ -6444,7 +6512,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="3">
+    <row r="15" ht="12.8" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>gaan</t>
@@ -6471,7 +6539,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="3">
+    <row r="16" ht="12.8" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>gelden</t>
@@ -6493,7 +6561,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="3">
+    <row r="17" ht="12.8" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>geven</t>
@@ -6515,7 +6583,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="3">
+    <row r="18" ht="12.8" customHeight="1" s="3">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>gieten</t>
@@ -6537,7 +6605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="3">
+    <row r="19" ht="12.8" customHeight="1" s="3">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>glijden</t>
@@ -6564,7 +6632,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="3">
+    <row r="20" ht="12.8" customHeight="1" s="3">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>graven</t>
@@ -6586,7 +6654,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="3">
+    <row r="21" ht="12.8" customHeight="1" s="3">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>grijpen</t>
@@ -6608,7 +6676,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="3">
+    <row r="22" ht="12.8" customHeight="1" s="3">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>hangen</t>
@@ -6630,7 +6698,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="3">
+    <row r="23" ht="12.8" customHeight="1" s="3">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>hebben</t>
@@ -6652,7 +6720,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="3">
+    <row r="24" ht="12.8" customHeight="1" s="3">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>helpen</t>
@@ -6674,7 +6742,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="3">
+    <row r="25" ht="12.8" customHeight="1" s="3">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>heten</t>
@@ -6696,7 +6764,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="26" s="3">
+    <row r="26" ht="12.8" customHeight="1" s="3">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>houden</t>
@@ -6718,7 +6786,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="27" s="3">
+    <row r="27" ht="12.8" customHeight="1" s="3">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>jagen</t>
@@ -6740,7 +6808,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="28" s="3">
+    <row r="28" ht="12.8" customHeight="1" s="3">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>kiezen</t>
@@ -6762,7 +6830,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="29" s="3">
+    <row r="29" ht="12.8" customHeight="1" s="3">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>kijken</t>
@@ -6784,7 +6852,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="30" s="3">
+    <row r="30" ht="12.8" customHeight="1" s="3">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>klimmen</t>
@@ -6811,7 +6879,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="31" s="3">
+    <row r="31" ht="12.8" customHeight="1" s="3">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>klinken</t>
@@ -6833,7 +6901,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="32" s="3">
+    <row r="32" ht="12.8" customHeight="1" s="3">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>komen</t>
@@ -6860,7 +6928,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="33" s="3">
+    <row r="33" ht="12.8" customHeight="1" s="3">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>kopen</t>
@@ -6882,7 +6950,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="34" s="3">
+    <row r="34" ht="12.8" customHeight="1" s="3">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>krijgen</t>
@@ -6904,7 +6972,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="35" s="3">
+    <row r="35" ht="12.8" customHeight="1" s="3">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>krimpen</t>
@@ -6931,7 +6999,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="36" s="3">
+    <row r="36" ht="12.8" customHeight="1" s="3">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>kruipen</t>
@@ -6958,7 +7026,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="37" s="3">
+    <row r="37" ht="12.8" customHeight="1" s="3">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>kunnen</t>
@@ -6980,7 +7048,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="38" s="3">
+    <row r="38" ht="12.8" customHeight="1" s="3">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>lachen</t>
@@ -7002,7 +7070,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="39" s="3">
+    <row r="39" ht="12.8" customHeight="1" s="3">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>laten</t>
@@ -7024,7 +7092,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="40" s="3">
+    <row r="40" ht="12.8" customHeight="1" s="3">
       <c r="A40" s="2" t="inlineStr">
         <is>
           <t>lezen</t>
@@ -7046,7 +7114,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="41" s="3">
+    <row r="41" ht="12.8" customHeight="1" s="3">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>liegen</t>
@@ -7069,10 +7137,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -7091,17 +7159,17 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A30" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A30" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B139:F166 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="20.74"/>
-    <col customWidth="1" max="5" min="5" style="2" width="17.54"/>
+    <col width="20.74" customWidth="1" style="2" min="2" max="2"/>
+    <col width="17.54" customWidth="1" style="2" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
+    <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>liggen</t>
@@ -7123,7 +7191,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
+    <row r="2" ht="12.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>liken</t>
@@ -7145,7 +7213,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3">
+    <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>lopen</t>
@@ -7172,7 +7240,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="3">
+    <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>moeten</t>
@@ -7194,7 +7262,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="3">
+    <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>mogen</t>
@@ -7216,7 +7284,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="3">
+    <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>nemen</t>
@@ -7238,7 +7306,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="3">
+    <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>plegen</t>
@@ -7260,7 +7328,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="3">
+    <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>rijden</t>
@@ -7287,7 +7355,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="3">
+    <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>rijzen</t>
@@ -7314,7 +7382,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="3">
+    <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>roepen</t>
@@ -7336,7 +7404,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="3">
+    <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>ruiken</t>
@@ -7358,7 +7426,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="3">
+    <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>scheiden</t>
@@ -7380,7 +7448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="3">
+    <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>schenken</t>
@@ -7402,7 +7470,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="3">
+    <row r="14" ht="12.8" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>scheppen</t>
@@ -7424,7 +7492,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="3">
+    <row r="15" ht="12.8" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>scheren</t>
@@ -7446,7 +7514,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="3">
+    <row r="16" ht="12.8" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>schieten</t>
@@ -7468,7 +7536,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="3">
+    <row r="17" ht="12.8" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>schijnen</t>
@@ -7490,7 +7558,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="3">
+    <row r="18" ht="12.8" customHeight="1" s="3">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>schrijven</t>
@@ -7512,7 +7580,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="3">
+    <row r="19" ht="12.8" customHeight="1" s="3">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>schrikken</t>
@@ -7539,7 +7607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="3">
+    <row r="20" ht="12.8" customHeight="1" s="3">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>schuiven</t>
@@ -7561,7 +7629,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="3">
+    <row r="21" ht="12.8" customHeight="1" s="3">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>slaan</t>
@@ -7583,7 +7651,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="3">
+    <row r="22" ht="12.8" customHeight="1" s="3">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>slapen</t>
@@ -7605,7 +7673,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="3">
+    <row r="23" ht="12.8" customHeight="1" s="3">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>sluiten</t>
@@ -7627,7 +7695,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="3">
+    <row r="24" ht="12.8" customHeight="1" s="3">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>snijden</t>
@@ -7649,7 +7717,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="3">
+    <row r="25" ht="12.8" customHeight="1" s="3">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>spreken</t>
@@ -7671,7 +7739,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="26" s="3">
+    <row r="26" ht="12.8" customHeight="1" s="3">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>springen</t>
@@ -7698,7 +7766,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="27" s="3">
+    <row r="27" ht="12.8" customHeight="1" s="3">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>staan</t>
@@ -7720,7 +7788,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="28" s="3">
+    <row r="28" ht="12.8" customHeight="1" s="3">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>steken</t>
@@ -7742,7 +7810,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="29" s="3">
+    <row r="29" ht="12.8" customHeight="1" s="3">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>stelen</t>
@@ -7764,7 +7832,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="30" s="3">
+    <row r="30" ht="12.8" customHeight="1" s="3">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>sterven</t>
@@ -7791,7 +7859,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="31" s="3">
+    <row r="31" ht="12.8" customHeight="1" s="3">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>stijgen</t>
@@ -7818,7 +7886,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="32" s="3">
+    <row r="32" ht="12.8" customHeight="1" s="3">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>treden</t>
@@ -7845,7 +7913,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="33" s="3">
+    <row r="33" ht="12.8" customHeight="1" s="3">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>treffen</t>
@@ -7867,7 +7935,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="34" s="3">
+    <row r="34" ht="12.8" customHeight="1" s="3">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>trekken</t>
@@ -7889,7 +7957,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="35" s="3">
+    <row r="35" ht="12.8" customHeight="1" s="3">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>vallen</t>
@@ -7916,7 +7984,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="36" s="3">
+    <row r="36" ht="12.8" customHeight="1" s="3">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>vangen</t>
@@ -7938,7 +8006,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="37" s="3">
+    <row r="37" ht="12.8" customHeight="1" s="3">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>varen</t>
@@ -7965,7 +8033,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="38" s="3">
+    <row r="38" ht="12.8" customHeight="1" s="3">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>vechten</t>
@@ -7987,7 +8055,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="39" s="3">
+    <row r="39" ht="12.8" customHeight="1" s="3">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>verbieden</t>
@@ -8009,7 +8077,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="40" s="3">
+    <row r="40" ht="12.8" customHeight="1" s="3">
       <c r="A40" s="2" t="inlineStr">
         <is>
           <t>verdwijnen</t>
@@ -8036,7 +8104,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="41" s="3">
+    <row r="41" ht="12.8" customHeight="1" s="3">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>vergeten</t>
@@ -8063,7 +8131,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="42" s="3">
+    <row r="42" ht="12.8" customHeight="1" s="3">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>verliezen</t>
@@ -8086,10 +8154,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -8108,16 +8176,16 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A19" view="normal" workbookViewId="0" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B139:F166 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A19" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B139:F166 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="27.65"/>
+    <col width="27.65" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
+    <row r="1" ht="12.8" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>vermijden</t>
@@ -8139,7 +8207,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
+    <row r="2" ht="12.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>vinden</t>
@@ -8161,7 +8229,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3">
+    <row r="3" ht="12.8" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>vliegen</t>
@@ -8183,7 +8251,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="3">
+    <row r="4" ht="12.8" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>vouwen</t>
@@ -8205,7 +8273,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="3">
+    <row r="5" ht="12.8" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>vragen</t>
@@ -8227,7 +8295,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="3">
+    <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>vriezen</t>
@@ -8249,7 +8317,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="3">
+    <row r="7" ht="12.8" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>waaien</t>
@@ -8271,7 +8339,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="3">
+    <row r="8" ht="12.8" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>wassen</t>
@@ -8293,7 +8361,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="3">
+    <row r="9" ht="12.8" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>wegen</t>
@@ -8315,7 +8383,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="3">
+    <row r="10" ht="12.8" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>werpen</t>
@@ -8337,7 +8405,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="3">
+    <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>weten</t>
@@ -8359,7 +8427,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="3">
+    <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>wijzen</t>
@@ -8381,7 +8449,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="3">
+    <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>willen</t>
@@ -8403,7 +8471,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="3">
+    <row r="14" ht="12.8" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>winnen</t>
@@ -8425,7 +8493,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="3">
+    <row r="15" ht="12.8" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>worden</t>
@@ -8452,7 +8520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="3">
+    <row r="16" ht="12.8" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>wrijven</t>
@@ -8474,7 +8542,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="3">
+    <row r="17" ht="12.8" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>zeggen</t>
@@ -8496,7 +8564,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="3">
+    <row r="18" ht="12.8" customHeight="1" s="3">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>zenden</t>
@@ -8518,7 +8586,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="3">
+    <row r="19" ht="12.8" customHeight="1" s="3">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>zien</t>
@@ -8540,7 +8608,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="3">
+    <row r="20" ht="12.8" customHeight="1" s="3">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>zijn</t>
@@ -8567,7 +8635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="3">
+    <row r="21" ht="12.8" customHeight="1" s="3">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>zingen</t>
@@ -8589,7 +8657,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="3">
+    <row r="22" ht="12.8" customHeight="1" s="3">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>zinken</t>
@@ -8616,7 +8684,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="3">
+    <row r="23" ht="12.8" customHeight="1" s="3">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>zitten</t>
@@ -8638,7 +8706,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="3">
+    <row r="24" ht="12.8" customHeight="1" s="3">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>zoeken</t>
@@ -8660,7 +8728,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="3">
+    <row r="25" ht="12.8" customHeight="1" s="3">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>zullen</t>
@@ -8682,7 +8750,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="26" s="3">
+    <row r="26" ht="12.8" customHeight="1" s="3">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>zwemmen</t>
@@ -8709,7 +8777,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="27" s="3">
+    <row r="27" ht="12.8" customHeight="1" s="3">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>zweren</t>
@@ -8732,7 +8800,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="28" s="3">
+    <row r="28" ht="12.8" customHeight="1" s="3">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>zwijgen</t>
@@ -8755,10 +8823,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>

--- a/Werkwoorden_Lijst.xlsx
+++ b/Werkwoorden_Lijst.xlsx
@@ -13,19 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Frequent1 " sheetId="2" r:id="rId2"/>
+    <sheet name="Frequent2" sheetId="3" r:id="rId3"/>
+    <sheet name="Infrequent1" sheetId="4" r:id="rId4"/>
+    <sheet name="Infrequent2" sheetId="5" r:id="rId5"/>
+    <sheet name="Infrequent3" sheetId="6" r:id="rId6"/>
+    <sheet name="Infrequent4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="515">
   <si>
     <t>Stam</t>
   </si>
@@ -1917,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4604,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="B139:F166 A2"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5078,10 +5078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="B139:F166 A12"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5089,367 +5089,375 @@
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>491</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>289</v>
+        <v>492</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>496</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>399</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>497</v>
+        <v>398</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>400</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>497</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5463,10 +5471,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCellId="1" sqref="B139:F166 A1"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5474,149 +5482,166 @@
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>491</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>492</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>498</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>499</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>500</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>501</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>502</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>503</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>505</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>506</v>
+        <v>205</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>507</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5632,10 +5657,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCellId="1" sqref="B139:F166 A1"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5643,604 +5668,621 @@
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>491</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
+        <v>492</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>508</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>228</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>238</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>261</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>262</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>278</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>280</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6256,10 +6298,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCellId="1" sqref="B139:F166 A1"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6268,627 +6310,644 @@
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>511</v>
+        <v>491</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>492</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>510</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>511</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>285</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>286</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>512</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>289</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>290</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>363</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>379</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>270</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>392</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>397</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>409</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>131</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>412</v>
+        <v>128</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>413</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>415</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>413</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>132</v>
+        <v>418</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>134</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6904,10 +6963,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCellId="1" sqref="B139:F166 A1"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6915,408 +6974,425 @@
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>421</v>
+        <v>491</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>420</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>421</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>424</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>425</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>426</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>427</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>429</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>430</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>432</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>433</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>434</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>435</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>448</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>449</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>450</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>150</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>452</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>453</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>454</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>455</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>452</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>454</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>154</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>456</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>458</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>459</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>456</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>458</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>460</v>
+        <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>461</v>
+        <v>156</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>462</v>
+        <v>157</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>463</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>460</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>462</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>162</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>464</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>465</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>466</v>
+        <v>161</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>467</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>464</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>465</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>165</v>
+        <v>466</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>166</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>468</v>
+        <v>167</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>470</v>
+        <v>169</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>471</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>171</v>
+        <v>472</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>473</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>474</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>174</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>476</v>
+        <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>478</v>
+        <v>181</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>479</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>487</v>
       </c>
     </row>
